--- a/Task Tracker Dashboard-SWA.xlsx
+++ b/Task Tracker Dashboard-SWA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMMAR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Previous Work\Project-Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095B9D11-4C0F-4A0B-B9FF-F6958652992F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7B0811-3445-4F5F-96AB-D1BA8D1655DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{75E0FCDA-1BA0-4010-B4B4-B74358032E28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75E0FCDA-1BA0-4010-B4B4-B74358032E28}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -47,8 +47,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -518,21 +516,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDE1319"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -544,6 +528,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE85145"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -565,139 +570,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE85145"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCF37"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDE1319"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCF37"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1170,6 +1042,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1177,7 +1050,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1574,6 +1446,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1581,7 +1454,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1928,10 +1800,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1967,6 +1839,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1974,7 +1847,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2279,6 +2151,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2286,7 +2159,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -5117,28 +4989,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7467F8E3-4D92-41E4-B083-8B87B9A5F6AF}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="98.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="98.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="27" t="s">
@@ -5156,7 +5030,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="28"/>
@@ -5172,15 +5046,15 @@
       </c>
       <c r="L2" s="21">
         <f ca="1">TODAY()</f>
-        <v>45470</v>
+        <v>46015</v>
       </c>
       <c r="M2" s="22">
         <f ca="1">TODAY()</f>
-        <v>45470</v>
+        <v>46015</v>
       </c>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="28"/>
@@ -5196,7 +5070,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5212,7 +5086,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -5228,7 +5102,7 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -5244,7 +5118,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -5260,7 +5134,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -5276,7 +5150,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -5292,7 +5166,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -5308,7 +5182,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -5324,7 +5198,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -5340,7 +5214,7 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -5372,7 +5246,7 @@
       </c>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -5407,7 +5281,7 @@
       </c>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -5433,16 +5307,16 @@
         <v>0.1</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" ref="L15:L26" si="0">H15-(H15*K15)</f>
+        <f t="shared" ref="L15:L23" si="0">H15-(H15*K15)</f>
         <v>0.9</v>
       </c>
       <c r="M15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.IFS(K15=1,"Completed",ISBLANK(F15),"",J15&lt;$D$19,"Late",K15=0,"Not Started",K15&gt;0,"In Progress")</f>
-        <v>In Progress</v>
+        <v>Late</v>
       </c>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -5473,11 +5347,11 @@
       </c>
       <c r="M16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.IFS(K16=1,"Completed",ISBLANK(F16),"",J16&lt;$D$19,"Late",K16=0,"Not Started",K16&gt;0,"In Progress")</f>
-        <v>Not Started</v>
+        <v>Late</v>
       </c>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -5508,11 +5382,11 @@
       </c>
       <c r="M17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.IFS(K17=1,"Completed",ISBLANK(F17),"",J17&lt;$D$19,"Late",K17=0,"Not Started",K17&gt;0,"In Progress")</f>
-        <v>In Progress</v>
+        <v>Late</v>
       </c>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -5543,11 +5417,11 @@
       </c>
       <c r="M18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.IFS(K18=1,"Completed",ISBLANK(F18),"",J18&lt;$D$19,"Late",K18=0,"Not Started",K18&gt;0,"In Progress")</f>
-        <v>In Progress</v>
+        <v>Late</v>
       </c>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="23" t="s">
         <v>11</v>
@@ -5555,7 +5429,7 @@
       <c r="C19" s="24"/>
       <c r="D19" s="5">
         <f ca="1">TODAY()</f>
-        <v>45470</v>
+        <v>46015</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="3" t="s">
@@ -5584,7 +5458,7 @@
       </c>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="25" t="s">
         <v>12</v>
@@ -5619,11 +5493,11 @@
       </c>
       <c r="M20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.IFS(K20=1,"Completed",ISBLANK(F20),"",J20&lt;$D$19,"Late",K20=0,"Not Started",K20&gt;0,"In Progress")</f>
-        <v>Not Started</v>
+        <v>Late</v>
       </c>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="23" t="s">
         <v>13</v>
@@ -5631,7 +5505,7 @@
       <c r="C21" s="24"/>
       <c r="D21" s="5">
         <f ca="1">D19+D20</f>
-        <v>45475</v>
+        <v>46020</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="15" t="s">
@@ -5659,11 +5533,11 @@
       </c>
       <c r="M21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.IFS(K21=1,"Completed",ISBLANK(F21),"",J21&lt;$D$19,"Late",K21=0,"Not Started",K21&gt;0,"In Progress")</f>
-        <v>Not Started</v>
+        <v>Late</v>
       </c>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="23" t="s">
         <v>14</v>
@@ -5699,11 +5573,11 @@
       </c>
       <c r="M22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.IFS(K22=1,"Completed",ISBLANK(F22),"",J22&lt;$D$19,"Late",K22=0,"Not Started",K22&gt;0,"In Progress")</f>
-        <v>In Progress</v>
+        <v>Late</v>
       </c>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -5734,11 +5608,11 @@
       </c>
       <c r="M23" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.IFS(K23=1,"Completed",ISBLANK(F23),"",J23&lt;$D$19,"Late",K23=0,"Not Started",K23&gt;0,"In Progress")</f>
-        <v>Not Started</v>
+        <v>Late</v>
       </c>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -5757,7 +5631,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -5776,7 +5650,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -5795,7 +5669,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -5811,7 +5685,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -5827,7 +5701,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -5843,7 +5717,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -5859,7 +5733,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -5875,7 +5749,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -5900,26 +5774,21 @@
     <mergeCell ref="C1:H3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="F20:H20 F21:G25 H21:H26 F14:K18 M14:M18 I20:K25 M20:M25">
-    <cfRule type="expression" dxfId="17" priority="46" stopIfTrue="1">
+  <conditionalFormatting sqref="F14:K18 M14:M18 F20:H20 I20:K25 M20:M25 F21:G25 H21:H26">
+    <cfRule type="expression" dxfId="8" priority="46" stopIfTrue="1">
       <formula>$K14=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:H20 F21:G25 H21:H26 F14:K18 M14:M18 I20:K25 M20:M25">
-    <cfRule type="expression" dxfId="16" priority="92">
-      <formula>$K14&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="15" priority="43">
+    <cfRule type="expression" dxfId="7" priority="43">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:K18 K20:K25">
-    <cfRule type="expression" dxfId="14" priority="76">
+    <cfRule type="expression" dxfId="6" priority="76">
       <formula>$K14&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="83">
+    <cfRule type="expression" dxfId="5" priority="83">
       <formula>$K15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5937,22 +5806,27 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M18 M20:M25">
-    <cfRule type="expression" dxfId="12" priority="84">
-      <formula>AND($J14&gt;$D$21,$K14&lt;&gt;1,NOT(ISBLANK($F14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="91">
-      <formula>AND($J14&lt;=$D$21,$K14&lt;&gt;1,NOT(ISBLANK($F14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L14:L18 L20:L26">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>_xlfn.IFS(K14=1,L14=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:L26">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>_xlfn.IFS(K14&lt;1,L14&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M18 M20:M25 F14:K18 I20:K25 F20:H20 F21:G25 H21:H26">
+    <cfRule type="expression" dxfId="2" priority="92">
+      <formula>$K14&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M18 M20:M25">
+    <cfRule type="expression" dxfId="1" priority="84">
+      <formula>AND($J14&gt;$D$21,$K14&lt;&gt;1,NOT(ISBLANK($F14)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>AND($J14&lt;=$D$21,$K14&lt;&gt;1,NOT(ISBLANK($F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5996,16 +5870,16 @@
       <selection activeCell="F23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6022,7 +5896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -6043,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -6064,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -6085,7 +5959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -6106,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -6127,7 +6001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -6148,7 +6022,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -6169,7 +6043,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="3:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="str">
         <f t="shared" si="2"/>
@@ -6188,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:7" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
@@ -6209,7 +6083,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
@@ -6230,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="6" t="str">
         <f t="shared" ref="D14:D20" si="4">IF(C14&lt;&gt;"",COUNTIF(Resource,"="&amp;C14),"")</f>
@@ -6249,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6268,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6287,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6306,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6325,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6344,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
       <c r="D20" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6363,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
@@ -6397,13 +6271,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="84.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="84.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6411,53 +6285,53 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
@@ -6486,17 +6360,17 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
@@ -6505,7 +6379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
@@ -6514,7 +6388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
@@ -6523,28 +6397,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="7">
         <f ca="1">COUNTIFS(Task_Name,"&lt;&gt;""",Completion,"&lt;&gt;1",Deadline,"&gt;"&amp;Today)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="7">
         <f ca="1">COUNTIFS(Task_Name,"&lt;&gt;""",Completion,"&lt;&gt;1",Deadline,"&lt;"&amp;Red_Flag_Date,Deadline,"&gt;"&amp;Today)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="12" t="s">
         <v>39</v>
       </c>
